--- a/dist/data/upgrades.xlsx
+++ b/dist/data/upgrades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Website\vocation-reroll\dist\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1714C777-7AB1-46B7-B1EE-80D4FA9F5CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96142613-68BA-4F45-B910-A9A0D3F323C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" tabRatio="331" xr2:uid="{82DCC3D5-4836-4E9E-8A18-9BC2420AB39E}"/>
+    <workbookView xWindow="-28920" yWindow="5370" windowWidth="29040" windowHeight="15840" tabRatio="331" xr2:uid="{82DCC3D5-4836-4E9E-8A18-9BC2420AB39E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,12 +69,6 @@
     <t>Hire Gemcutter</t>
   </si>
   <si>
-    <t>Unlock Copper Upgrades</t>
-  </si>
-  <si>
-    <t>Unlock Silver Ugrades</t>
-  </si>
-  <si>
     <t>Hire Merchant</t>
   </si>
   <si>
@@ -141,21 +135,12 @@
     <t>{"resourceType":"wood","amount":10}</t>
   </si>
   <si>
-    <t>{"resourceType":"stone","amount":10}</t>
-  </si>
-  <si>
     <t>costMultiplier: number</t>
   </si>
   <si>
     <t>{"resourceType":"wood","amount":200}, {"resourceType":"food","amount":20}</t>
   </si>
   <si>
-    <t>Unlock Wooden Upgrades</t>
-  </si>
-  <si>
-    <t>Unlock Golden Upgrades</t>
-  </si>
-  <si>
     <t>{"resourceType":"coins","amount":20}, {"resourceType":"food","amount":10}</t>
   </si>
   <si>
@@ -232,6 +217,21 @@
   </si>
   <si>
     <t>upgradeAction: String</t>
+  </si>
+  <si>
+    <t>Upgrade to Wooden Tools</t>
+  </si>
+  <si>
+    <t>Upgrade to Copper Tools</t>
+  </si>
+  <si>
+    <t>Upgrade to Silver Tools</t>
+  </si>
+  <si>
+    <t>Upgrade to Golden Tools</t>
+  </si>
+  <si>
+    <t>{"resourceType":"stone","amount":200}</t>
   </si>
 </sst>
 </file>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1ED0B5F-E042-48D5-ACFB-41F9FE3E42B6}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,33 +627,33 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -662,24 +662,24 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -688,24 +688,24 @@
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -714,24 +714,24 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -740,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -748,23 +748,23 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -772,16 +772,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
@@ -790,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -798,16 +798,16 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -816,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -824,16 +824,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -842,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -850,16 +850,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -868,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -876,16 +876,16 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -894,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -902,16 +902,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -920,24 +920,24 @@
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -946,102 +946,102 @@
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
@@ -1050,59 +1050,59 @@
         <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
